--- a/Formation/Expectancy.xlsx
+++ b/Formation/Expectancy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\AppData\Roaming\UltimateChartistRoot\Formation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11D25A85-4C96-4376-B16D-427532CE0A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB3A463-251A-422C-9B0C-EF06C0E39BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1245" yWindow="435" windowWidth="20805" windowHeight="11145" xr2:uid="{12D03532-B2D0-4E4A-BAD1-96138F88A926}"/>
   </bookViews>
@@ -39,7 +39,8 @@
     <t>Risk</t>
   </si>
   <si>
-    <t>E</t>
+    <t xml:space="preserve">              R
+W</t>
   </si>
 </sst>
 </file>
@@ -47,7 +48,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -83,21 +84,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -215,6 +201,23 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="medium">
+        <color indexed="64"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -223,19 +226,21 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,21 +561,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECC50A3-3186-4D75-B2F6-1D0CAE20C465}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2">
@@ -604,507 +609,505 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="7">
-        <f>$C$14*($A2*B$1-1)</f>
+      <c r="B2" s="6">
+        <f>$O$2*($A2*B$1-1)</f>
         <v>-1</v>
       </c>
-      <c r="C2" s="7">
-        <f>$C$14*($A2*C$1-1)</f>
+      <c r="C2" s="6">
+        <f>$O$2*($A2*C$1-1)</f>
         <v>-1</v>
       </c>
-      <c r="D2" s="7">
-        <f>$C$14*($A2*D$1-1)</f>
+      <c r="D2" s="6">
+        <f>$O$2*($A2*D$1-1)</f>
         <v>-1</v>
       </c>
-      <c r="E2" s="7">
-        <f>$C$14*($A2*E$1-1)</f>
+      <c r="E2" s="6">
+        <f>$O$2*($A2*E$1-1)</f>
         <v>-1</v>
       </c>
-      <c r="F2" s="7">
-        <f>$C$14*($A2*F$1-1)</f>
+      <c r="F2" s="6">
+        <f>$O$2*($A2*F$1-1)</f>
         <v>-1</v>
       </c>
-      <c r="G2" s="7">
-        <f>$C$14*($A2*G$1-1)</f>
+      <c r="G2" s="6">
+        <f>$O$2*($A2*G$1-1)</f>
         <v>-1</v>
       </c>
-      <c r="H2" s="7">
-        <f>$C$14*($A2*H$1-1)</f>
+      <c r="H2" s="6">
+        <f>$O$2*($A2*H$1-1)</f>
         <v>-1</v>
       </c>
-      <c r="I2" s="7">
-        <f>$C$14*($A2*I$1-1)</f>
+      <c r="I2" s="6">
+        <f>$O$2*($A2*I$1-1)</f>
         <v>-1</v>
       </c>
-      <c r="J2" s="7">
-        <f>$C$14*($A2*J$1-1)</f>
+      <c r="J2" s="6">
+        <f>$O$2*($A2*J$1-1)</f>
         <v>-1</v>
       </c>
-      <c r="K2" s="8">
-        <f>$C$14*($A2*K$1-1)</f>
+      <c r="K2" s="7">
+        <f>$O$2*($A2*K$1-1)</f>
         <v>-1</v>
       </c>
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>0.1</v>
       </c>
-      <c r="B3" s="7">
-        <f>$C$14*($A3*B$1-1)</f>
+      <c r="B3" s="6">
+        <f>$O$2*($A3*B$1-1)</f>
         <v>-0.9</v>
       </c>
-      <c r="C3" s="7">
-        <f>$C$14*($A3*C$1-1)</f>
+      <c r="C3" s="6">
+        <f>$O$2*($A3*C$1-1)</f>
         <v>-0.8</v>
       </c>
-      <c r="D3" s="7">
-        <f>$C$14*($A3*D$1-1)</f>
+      <c r="D3" s="6">
+        <f>$O$2*($A3*D$1-1)</f>
         <v>-0.7</v>
       </c>
-      <c r="E3" s="7">
-        <f>$C$14*($A3*E$1-1)</f>
+      <c r="E3" s="6">
+        <f>$O$2*($A3*E$1-1)</f>
         <v>-0.6</v>
       </c>
-      <c r="F3" s="9">
-        <f>$C$14*($A3*F$1-1)</f>
+      <c r="F3" s="8">
+        <f>$O$2*($A3*F$1-1)</f>
         <v>-0.5</v>
       </c>
-      <c r="G3" s="9">
-        <f>$C$14*($A3*G$1-1)</f>
+      <c r="G3" s="8">
+        <f>$O$2*($A3*G$1-1)</f>
         <v>-0.39999999999999991</v>
       </c>
-      <c r="H3" s="9">
-        <f>$C$14*($A3*H$1-1)</f>
+      <c r="H3" s="8">
+        <f>$O$2*($A3*H$1-1)</f>
         <v>-0.29999999999999993</v>
       </c>
-      <c r="I3" s="9">
-        <f>$C$14*($A3*I$1-1)</f>
+      <c r="I3" s="8">
+        <f>$O$2*($A3*I$1-1)</f>
         <v>-0.19999999999999996</v>
       </c>
-      <c r="J3" s="10">
-        <f>$C$14*($A3*J$1-1)</f>
+      <c r="J3" s="9">
+        <f>$O$2*($A3*J$1-1)</f>
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="K3" s="11">
-        <f>$C$14*($A3*K$1-1)</f>
+      <c r="K3" s="10">
+        <f>$O$2*($A3*K$1-1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>0.2</v>
       </c>
-      <c r="B4" s="7">
-        <f>$C$14*($A4*B$1-1)</f>
+      <c r="B4" s="6">
+        <f>$O$2*($A4*B$1-1)</f>
         <v>-0.8</v>
       </c>
-      <c r="C4" s="7">
-        <f>$C$14*($A4*C$1-1)</f>
+      <c r="C4" s="6">
+        <f>$O$2*($A4*C$1-1)</f>
         <v>-0.6</v>
       </c>
-      <c r="D4" s="7">
-        <f>$C$14*($A4*D$1-1)</f>
+      <c r="D4" s="6">
+        <f>$O$2*($A4*D$1-1)</f>
         <v>-0.39999999999999991</v>
       </c>
-      <c r="E4" s="10">
-        <f>$C$14*($A4*E$1-1)</f>
+      <c r="E4" s="9">
+        <f>$O$2*($A4*E$1-1)</f>
         <v>-0.19999999999999996</v>
       </c>
-      <c r="F4" s="7">
-        <f>$C$14*($A4*F$1-1)</f>
+      <c r="F4" s="6">
+        <f>$O$2*($A4*F$1-1)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="7">
-        <f>$C$14*($A4*G$1-1)</f>
+      <c r="G4" s="6">
+        <f>$O$2*($A4*G$1-1)</f>
         <v>0.20000000000000018</v>
       </c>
-      <c r="H4" s="7">
-        <f>$C$14*($A4*H$1-1)</f>
+      <c r="H4" s="6">
+        <f>$O$2*($A4*H$1-1)</f>
         <v>0.40000000000000013</v>
       </c>
-      <c r="I4" s="7">
-        <f>$C$14*($A4*I$1-1)</f>
+      <c r="I4" s="6">
+        <f>$O$2*($A4*I$1-1)</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="J4" s="7">
-        <f>$C$14*($A4*J$1-1)</f>
+      <c r="J4" s="6">
+        <f>$O$2*($A4*J$1-1)</f>
         <v>0.8</v>
       </c>
-      <c r="K4" s="11">
-        <f>$C$14*($A4*K$1-1)</f>
+      <c r="K4" s="10">
+        <f>$O$2*($A4*K$1-1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>0.3</v>
       </c>
-      <c r="B5" s="7">
-        <f>$C$14*($A5*B$1-1)</f>
+      <c r="B5" s="6">
+        <f>$O$2*($A5*B$1-1)</f>
         <v>-0.7</v>
       </c>
-      <c r="C5" s="7">
-        <f>$C$14*($A5*C$1-1)</f>
+      <c r="C5" s="6">
+        <f>$O$2*($A5*C$1-1)</f>
         <v>-0.4</v>
       </c>
-      <c r="D5" s="10">
-        <f>$C$14*($A5*D$1-1)</f>
+      <c r="D5" s="9">
+        <f>$O$2*($A5*D$1-1)</f>
         <v>-0.10000000000000009</v>
       </c>
-      <c r="E5" s="7">
-        <f>$C$14*($A5*E$1-1)</f>
+      <c r="E5" s="6">
+        <f>$O$2*($A5*E$1-1)</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="F5" s="7">
-        <f>$C$14*($A5*F$1-1)</f>
+      <c r="F5" s="6">
+        <f>$O$2*($A5*F$1-1)</f>
         <v>0.5</v>
       </c>
-      <c r="G5" s="7">
-        <f>$C$14*($A5*G$1-1)</f>
+      <c r="G5" s="6">
+        <f>$O$2*($A5*G$1-1)</f>
         <v>0.79999999999999982</v>
       </c>
-      <c r="H5" s="7">
-        <f>$C$14*($A5*H$1-1)</f>
+      <c r="H5" s="6">
+        <f>$O$2*($A5*H$1-1)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="I5" s="7">
-        <f>$C$14*($A5*I$1-1)</f>
+      <c r="I5" s="6">
+        <f>$O$2*($A5*I$1-1)</f>
         <v>1.4</v>
       </c>
-      <c r="J5" s="7">
-        <f>$C$14*($A5*J$1-1)</f>
+      <c r="J5" s="6">
+        <f>$O$2*($A5*J$1-1)</f>
         <v>1.6999999999999997</v>
       </c>
-      <c r="K5" s="11">
-        <f>$C$14*($A5*K$1-1)</f>
+      <c r="K5" s="10">
+        <f>$O$2*($A5*K$1-1)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>0.4</v>
       </c>
-      <c r="B6" s="7">
-        <f>$C$14*($A6*B$1-1)</f>
+      <c r="B6" s="6">
+        <f>$O$2*($A6*B$1-1)</f>
         <v>-0.6</v>
       </c>
-      <c r="C6" s="10">
-        <f>$C$14*($A6*C$1-1)</f>
+      <c r="C6" s="9">
+        <f>$O$2*($A6*C$1-1)</f>
         <v>-0.19999999999999996</v>
       </c>
-      <c r="D6" s="7">
-        <f>$C$14*($A6*D$1-1)</f>
+      <c r="D6" s="6">
+        <f>$O$2*($A6*D$1-1)</f>
         <v>0.20000000000000018</v>
       </c>
-      <c r="E6" s="7">
-        <f>$C$14*($A6*E$1-1)</f>
+      <c r="E6" s="6">
+        <f>$O$2*($A6*E$1-1)</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="F6" s="7">
-        <f>$C$14*($A6*F$1-1)</f>
+      <c r="F6" s="6">
+        <f>$O$2*($A6*F$1-1)</f>
         <v>1</v>
       </c>
-      <c r="G6" s="7">
-        <f>$C$14*($A6*G$1-1)</f>
+      <c r="G6" s="6">
+        <f>$O$2*($A6*G$1-1)</f>
         <v>1.4000000000000004</v>
       </c>
-      <c r="H6" s="7">
-        <f>$C$14*($A6*H$1-1)</f>
+      <c r="H6" s="6">
+        <f>$O$2*($A6*H$1-1)</f>
         <v>1.8000000000000003</v>
       </c>
-      <c r="I6" s="7">
-        <f>$C$14*($A6*I$1-1)</f>
+      <c r="I6" s="6">
+        <f>$O$2*($A6*I$1-1)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="J6" s="7">
-        <f>$C$14*($A6*J$1-1)</f>
+      <c r="J6" s="6">
+        <f>$O$2*($A6*J$1-1)</f>
         <v>2.6</v>
       </c>
-      <c r="K6" s="11">
-        <f>$C$14*($A6*K$1-1)</f>
+      <c r="K6" s="10">
+        <f>$O$2*($A6*K$1-1)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>0.5</v>
       </c>
-      <c r="B7" s="12">
-        <f>$C$14*($A7*B$1-1)</f>
+      <c r="B7" s="11">
+        <f>$O$2*($A7*B$1-1)</f>
         <v>-0.5</v>
       </c>
-      <c r="C7" s="7">
-        <f>$C$14*($A7*C$1-1)</f>
+      <c r="C7" s="6">
+        <f>$O$2*($A7*C$1-1)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="7">
-        <f>$C$14*($A7*D$1-1)</f>
+      <c r="D7" s="6">
+        <f>$O$2*($A7*D$1-1)</f>
         <v>0.5</v>
       </c>
-      <c r="E7" s="7">
-        <f>$C$14*($A7*E$1-1)</f>
+      <c r="E7" s="6">
+        <f>$O$2*($A7*E$1-1)</f>
         <v>1</v>
       </c>
-      <c r="F7" s="7">
-        <f>$C$14*($A7*F$1-1)</f>
+      <c r="F7" s="6">
+        <f>$O$2*($A7*F$1-1)</f>
         <v>1.5</v>
       </c>
-      <c r="G7" s="7">
-        <f>$C$14*($A7*G$1-1)</f>
+      <c r="G7" s="6">
+        <f>$O$2*($A7*G$1-1)</f>
         <v>2</v>
       </c>
-      <c r="H7" s="7">
-        <f>$C$14*($A7*H$1-1)</f>
+      <c r="H7" s="6">
+        <f>$O$2*($A7*H$1-1)</f>
         <v>2.5</v>
       </c>
-      <c r="I7" s="7">
-        <f>$C$14*($A7*I$1-1)</f>
+      <c r="I7" s="6">
+        <f>$O$2*($A7*I$1-1)</f>
         <v>3</v>
       </c>
-      <c r="J7" s="7">
-        <f>$C$14*($A7*J$1-1)</f>
+      <c r="J7" s="6">
+        <f>$O$2*($A7*J$1-1)</f>
         <v>3.5</v>
       </c>
-      <c r="K7" s="11">
-        <f>$C$14*($A7*K$1-1)</f>
+      <c r="K7" s="10">
+        <f>$O$2*($A7*K$1-1)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>0.6</v>
       </c>
-      <c r="B8" s="12">
-        <f>$C$14*($A8*B$1-1)</f>
+      <c r="B8" s="11">
+        <f>$O$2*($A8*B$1-1)</f>
         <v>-0.4</v>
       </c>
-      <c r="C8" s="7">
-        <f>$C$14*($A8*C$1-1)</f>
+      <c r="C8" s="6">
+        <f>$O$2*($A8*C$1-1)</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="D8" s="7">
-        <f>$C$14*($A8*D$1-1)</f>
+      <c r="D8" s="6">
+        <f>$O$2*($A8*D$1-1)</f>
         <v>0.79999999999999982</v>
       </c>
-      <c r="E8" s="7">
-        <f>$C$14*($A8*E$1-1)</f>
+      <c r="E8" s="6">
+        <f>$O$2*($A8*E$1-1)</f>
         <v>1.4</v>
       </c>
-      <c r="F8" s="7">
-        <f>$C$14*($A8*F$1-1)</f>
+      <c r="F8" s="6">
+        <f>$O$2*($A8*F$1-1)</f>
         <v>2</v>
       </c>
-      <c r="G8" s="7">
-        <f>$C$14*($A8*G$1-1)</f>
+      <c r="G8" s="6">
+        <f>$O$2*($A8*G$1-1)</f>
         <v>2.5999999999999996</v>
       </c>
-      <c r="H8" s="7">
-        <f>$C$14*($A8*H$1-1)</f>
+      <c r="H8" s="6">
+        <f>$O$2*($A8*H$1-1)</f>
         <v>3.2</v>
       </c>
-      <c r="I8" s="7">
-        <f>$C$14*($A8*I$1-1)</f>
+      <c r="I8" s="6">
+        <f>$O$2*($A8*I$1-1)</f>
         <v>3.8</v>
       </c>
-      <c r="J8" s="7">
-        <f>$C$14*($A8*J$1-1)</f>
+      <c r="J8" s="6">
+        <f>$O$2*($A8*J$1-1)</f>
         <v>4.3999999999999995</v>
       </c>
-      <c r="K8" s="11">
-        <f>$C$14*($A8*K$1-1)</f>
+      <c r="K8" s="10">
+        <f>$O$2*($A8*K$1-1)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>0.7</v>
       </c>
-      <c r="B9" s="12">
-        <f>$C$14*($A9*B$1-1)</f>
+      <c r="B9" s="11">
+        <f>$O$2*($A9*B$1-1)</f>
         <v>-0.30000000000000004</v>
       </c>
-      <c r="C9" s="7">
-        <f>$C$14*($A9*C$1-1)</f>
+      <c r="C9" s="6">
+        <f>$O$2*($A9*C$1-1)</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="D9" s="7">
-        <f>$C$14*($A9*D$1-1)</f>
+      <c r="D9" s="6">
+        <f>$O$2*($A9*D$1-1)</f>
         <v>1.0999999999999996</v>
       </c>
-      <c r="E9" s="7">
-        <f>$C$14*($A9*E$1-1)</f>
+      <c r="E9" s="6">
+        <f>$O$2*($A9*E$1-1)</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="F9" s="7">
-        <f>$C$14*($A9*F$1-1)</f>
+      <c r="F9" s="6">
+        <f>$O$2*($A9*F$1-1)</f>
         <v>2.5</v>
       </c>
-      <c r="G9" s="7">
-        <f>$C$14*($A9*G$1-1)</f>
+      <c r="G9" s="6">
+        <f>$O$2*($A9*G$1-1)</f>
         <v>3.1999999999999993</v>
       </c>
-      <c r="H9" s="7">
-        <f>$C$14*($A9*H$1-1)</f>
+      <c r="H9" s="6">
+        <f>$O$2*($A9*H$1-1)</f>
         <v>3.8999999999999995</v>
       </c>
-      <c r="I9" s="7">
-        <f>$C$14*($A9*I$1-1)</f>
+      <c r="I9" s="6">
+        <f>$O$2*($A9*I$1-1)</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="J9" s="7">
-        <f>$C$14*($A9*J$1-1)</f>
+      <c r="J9" s="6">
+        <f>$O$2*($A9*J$1-1)</f>
         <v>5.3</v>
       </c>
-      <c r="K9" s="11">
-        <f>$C$14*($A9*K$1-1)</f>
+      <c r="K9" s="10">
+        <f>$O$2*($A9*K$1-1)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>0.8</v>
       </c>
-      <c r="B10" s="12">
-        <f>$C$14*($A10*B$1-1)</f>
+      <c r="B10" s="11">
+        <f>$O$2*($A10*B$1-1)</f>
         <v>-0.19999999999999996</v>
       </c>
-      <c r="C10" s="7">
-        <f>$C$14*($A10*C$1-1)</f>
+      <c r="C10" s="6">
+        <f>$O$2*($A10*C$1-1)</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="D10" s="7">
-        <f>$C$14*($A10*D$1-1)</f>
+      <c r="D10" s="6">
+        <f>$O$2*($A10*D$1-1)</f>
         <v>1.4000000000000004</v>
       </c>
-      <c r="E10" s="7">
-        <f>$C$14*($A10*E$1-1)</f>
+      <c r="E10" s="6">
+        <f>$O$2*($A10*E$1-1)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="F10" s="7">
-        <f>$C$14*($A10*F$1-1)</f>
+      <c r="F10" s="6">
+        <f>$O$2*($A10*F$1-1)</f>
         <v>3</v>
       </c>
-      <c r="G10" s="7">
-        <f>$C$14*($A10*G$1-1)</f>
+      <c r="G10" s="6">
+        <f>$O$2*($A10*G$1-1)</f>
         <v>3.8000000000000007</v>
       </c>
-      <c r="H10" s="7">
-        <f>$C$14*($A10*H$1-1)</f>
+      <c r="H10" s="6">
+        <f>$O$2*($A10*H$1-1)</f>
         <v>4.6000000000000005</v>
       </c>
-      <c r="I10" s="7">
-        <f>$C$14*($A10*I$1-1)</f>
+      <c r="I10" s="6">
+        <f>$O$2*($A10*I$1-1)</f>
         <v>5.4</v>
       </c>
-      <c r="J10" s="7">
-        <f>$C$14*($A10*J$1-1)</f>
+      <c r="J10" s="6">
+        <f>$O$2*($A10*J$1-1)</f>
         <v>6.2</v>
       </c>
-      <c r="K10" s="11">
-        <f>$C$14*($A10*K$1-1)</f>
+      <c r="K10" s="10">
+        <f>$O$2*($A10*K$1-1)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>0.9</v>
       </c>
-      <c r="B11" s="10">
-        <f>$C$14*($A11*B$1-1)</f>
+      <c r="B11" s="9">
+        <f>$O$2*($A11*B$1-1)</f>
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="C11" s="7">
-        <f>$C$14*($A11*C$1-1)</f>
+      <c r="C11" s="6">
+        <f>$O$2*($A11*C$1-1)</f>
         <v>0.8</v>
       </c>
-      <c r="D11" s="7">
-        <f>$C$14*($A11*D$1-1)</f>
+      <c r="D11" s="6">
+        <f>$O$2*($A11*D$1-1)</f>
         <v>1.7000000000000002</v>
       </c>
-      <c r="E11" s="7">
-        <f>$C$14*($A11*E$1-1)</f>
+      <c r="E11" s="6">
+        <f>$O$2*($A11*E$1-1)</f>
         <v>2.6</v>
       </c>
-      <c r="F11" s="7">
-        <f>$C$14*($A11*F$1-1)</f>
+      <c r="F11" s="6">
+        <f>$O$2*($A11*F$1-1)</f>
         <v>3.5</v>
       </c>
-      <c r="G11" s="7">
-        <f>$C$14*($A11*G$1-1)</f>
+      <c r="G11" s="6">
+        <f>$O$2*($A11*G$1-1)</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="H11" s="7">
-        <f>$C$14*($A11*H$1-1)</f>
+      <c r="H11" s="6">
+        <f>$O$2*($A11*H$1-1)</f>
         <v>5.3</v>
       </c>
-      <c r="I11" s="7">
-        <f>$C$14*($A11*I$1-1)</f>
+      <c r="I11" s="6">
+        <f>$O$2*($A11*I$1-1)</f>
         <v>6.2</v>
       </c>
-      <c r="J11" s="7">
-        <f>$C$14*($A11*J$1-1)</f>
+      <c r="J11" s="6">
+        <f>$O$2*($A11*J$1-1)</f>
         <v>7.1</v>
       </c>
-      <c r="K11" s="11">
-        <f>$C$14*($A11*K$1-1)</f>
+      <c r="K11" s="10">
+        <f>$O$2*($A11*K$1-1)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <v>1</v>
       </c>
-      <c r="B12" s="13">
-        <f>$C$14*($A12*B$1-1)</f>
+      <c r="B12" s="12">
+        <f>$O$2*($A12*B$1-1)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="13">
-        <f>$C$14*($A12*C$1-1)</f>
+      <c r="C12" s="12">
+        <f>$O$2*($A12*C$1-1)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="13">
-        <f>$C$14*($A12*D$1-1)</f>
+      <c r="D12" s="12">
+        <f>$O$2*($A12*D$1-1)</f>
         <v>2</v>
       </c>
-      <c r="E12" s="13">
-        <f>$C$14*($A12*E$1-1)</f>
+      <c r="E12" s="12">
+        <f>$O$2*($A12*E$1-1)</f>
         <v>3</v>
       </c>
-      <c r="F12" s="13">
-        <f>$C$14*($A12*F$1-1)</f>
+      <c r="F12" s="12">
+        <f>$O$2*($A12*F$1-1)</f>
         <v>4</v>
       </c>
-      <c r="G12" s="13">
-        <f>$C$14*($A12*G$1-1)</f>
+      <c r="G12" s="12">
+        <f>$O$2*($A12*G$1-1)</f>
         <v>5</v>
       </c>
-      <c r="H12" s="13">
-        <f>$C$14*($A12*H$1-1)</f>
+      <c r="H12" s="12">
+        <f>$O$2*($A12*H$1-1)</f>
         <v>6</v>
       </c>
-      <c r="I12" s="13">
-        <f>$C$14*($A12*I$1-1)</f>
+      <c r="I12" s="12">
+        <f>$O$2*($A12*I$1-1)</f>
         <v>7</v>
       </c>
-      <c r="J12" s="13">
-        <f>$C$14*($A12*J$1-1)</f>
+      <c r="J12" s="12">
+        <f>$O$2*($A12*J$1-1)</f>
         <v>8</v>
       </c>
-      <c r="K12" s="14">
-        <f>$C$14*($A12*K$1-1)</f>
+      <c r="K12" s="13">
+        <f>$O$2*($A12*K$1-1)</f>
         <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Formation/Expectancy.xlsx
+++ b/Formation/Expectancy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\AppData\Roaming\UltimateChartistRoot\Formation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB3A463-251A-422C-9B0C-EF06C0E39BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCFA930-910A-4475-8A08-202B2CB3C828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="435" windowWidth="20805" windowHeight="11145" xr2:uid="{12D03532-B2D0-4E4A-BAD1-96138F88A926}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{12D03532-B2D0-4E4A-BAD1-96138F88A926}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,13 +34,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Risk</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">              R
 W</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Probabilité de gain</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Gain Moyen/Perte Moyenne</t>
   </si>
 </sst>
 </file>
@@ -75,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -219,11 +228,71 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -241,6 +310,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECC50A3-3186-4D75-B2F6-1D0CAE20C465}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,11 +645,12 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
         <v>1</v>
@@ -609,504 +683,510 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="6">
-        <f>$O$2*($A2*B$1-1)</f>
+        <f>($A2*B$1-1)</f>
         <v>-1</v>
       </c>
       <c r="C2" s="6">
-        <f>$O$2*($A2*C$1-1)</f>
+        <f t="shared" ref="C2:K2" si="0">($A2*C$1-1)</f>
         <v>-1</v>
       </c>
       <c r="D2" s="6">
-        <f>$O$2*($A2*D$1-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="E2" s="6">
-        <f>$O$2*($A2*E$1-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="F2" s="6">
-        <f>$O$2*($A2*F$1-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="G2" s="6">
-        <f>$O$2*($A2*G$1-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="H2" s="6">
-        <f>$O$2*($A2*H$1-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="I2" s="6">
-        <f>$O$2*($A2*I$1-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="J2" s="6">
-        <f>$O$2*($A2*J$1-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K2" s="7">
-        <f>$O$2*($A2*K$1-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="N2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2">
+      <c r="M2" s="15" t="s">
         <v>1</v>
       </c>
+      <c r="N2" s="16" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>0.1</v>
       </c>
       <c r="B3" s="6">
-        <f>$O$2*($A3*B$1-1)</f>
+        <f t="shared" ref="B3:K12" si="1">($A3*B$1-1)</f>
         <v>-0.9</v>
       </c>
       <c r="C3" s="6">
-        <f>$O$2*($A3*C$1-1)</f>
+        <f t="shared" si="1"/>
         <v>-0.8</v>
       </c>
       <c r="D3" s="6">
-        <f>$O$2*($A3*D$1-1)</f>
+        <f t="shared" si="1"/>
         <v>-0.7</v>
       </c>
       <c r="E3" s="6">
-        <f>$O$2*($A3*E$1-1)</f>
+        <f t="shared" si="1"/>
         <v>-0.6</v>
       </c>
       <c r="F3" s="8">
-        <f>$O$2*($A3*F$1-1)</f>
+        <f t="shared" si="1"/>
         <v>-0.5</v>
       </c>
       <c r="G3" s="8">
-        <f>$O$2*($A3*G$1-1)</f>
+        <f t="shared" si="1"/>
         <v>-0.39999999999999991</v>
       </c>
       <c r="H3" s="8">
-        <f>$O$2*($A3*H$1-1)</f>
+        <f t="shared" si="1"/>
         <v>-0.29999999999999993</v>
       </c>
       <c r="I3" s="8">
-        <f>$O$2*($A3*I$1-1)</f>
+        <f t="shared" si="1"/>
         <v>-0.19999999999999996</v>
       </c>
       <c r="J3" s="9">
-        <f>$O$2*($A3*J$1-1)</f>
+        <f t="shared" si="1"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="K3" s="10">
-        <f>$O$2*($A3*K$1-1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="M3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>0.2</v>
       </c>
       <c r="B4" s="6">
-        <f>$O$2*($A4*B$1-1)</f>
+        <f t="shared" si="1"/>
         <v>-0.8</v>
       </c>
       <c r="C4" s="6">
-        <f>$O$2*($A4*C$1-1)</f>
+        <f t="shared" si="1"/>
         <v>-0.6</v>
       </c>
       <c r="D4" s="6">
-        <f>$O$2*($A4*D$1-1)</f>
+        <f t="shared" si="1"/>
         <v>-0.39999999999999991</v>
       </c>
       <c r="E4" s="9">
-        <f>$O$2*($A4*E$1-1)</f>
+        <f t="shared" si="1"/>
         <v>-0.19999999999999996</v>
       </c>
       <c r="F4" s="6">
-        <f>$O$2*($A4*F$1-1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G4" s="6">
-        <f>$O$2*($A4*G$1-1)</f>
+        <f t="shared" si="1"/>
         <v>0.20000000000000018</v>
       </c>
       <c r="H4" s="6">
-        <f>$O$2*($A4*H$1-1)</f>
+        <f t="shared" si="1"/>
         <v>0.40000000000000013</v>
       </c>
       <c r="I4" s="6">
-        <f>$O$2*($A4*I$1-1)</f>
+        <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="J4" s="6">
-        <f>$O$2*($A4*J$1-1)</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="K4" s="10">
-        <f>$O$2*($A4*K$1-1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>0.3</v>
       </c>
       <c r="B5" s="6">
-        <f>$O$2*($A5*B$1-1)</f>
+        <f t="shared" si="1"/>
         <v>-0.7</v>
       </c>
       <c r="C5" s="6">
-        <f>$O$2*($A5*C$1-1)</f>
+        <f t="shared" si="1"/>
         <v>-0.4</v>
       </c>
       <c r="D5" s="9">
-        <f>$O$2*($A5*D$1-1)</f>
+        <f t="shared" si="1"/>
         <v>-0.10000000000000009</v>
       </c>
       <c r="E5" s="6">
-        <f>$O$2*($A5*E$1-1)</f>
+        <f t="shared" si="1"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="F5" s="6">
-        <f>$O$2*($A5*F$1-1)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="G5" s="6">
-        <f>$O$2*($A5*G$1-1)</f>
+        <f t="shared" si="1"/>
         <v>0.79999999999999982</v>
       </c>
       <c r="H5" s="6">
-        <f>$O$2*($A5*H$1-1)</f>
+        <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="I5" s="6">
-        <f>$O$2*($A5*I$1-1)</f>
+        <f t="shared" si="1"/>
         <v>1.4</v>
       </c>
       <c r="J5" s="6">
-        <f>$O$2*($A5*J$1-1)</f>
+        <f t="shared" si="1"/>
         <v>1.6999999999999997</v>
       </c>
       <c r="K5" s="10">
-        <f>$O$2*($A5*K$1-1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>0.4</v>
       </c>
       <c r="B6" s="6">
-        <f>$O$2*($A6*B$1-1)</f>
+        <f t="shared" si="1"/>
         <v>-0.6</v>
       </c>
       <c r="C6" s="9">
-        <f>$O$2*($A6*C$1-1)</f>
+        <f t="shared" si="1"/>
         <v>-0.19999999999999996</v>
       </c>
       <c r="D6" s="6">
-        <f>$O$2*($A6*D$1-1)</f>
+        <f t="shared" si="1"/>
         <v>0.20000000000000018</v>
       </c>
       <c r="E6" s="6">
-        <f>$O$2*($A6*E$1-1)</f>
+        <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="F6" s="6">
-        <f>$O$2*($A6*F$1-1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G6" s="6">
-        <f>$O$2*($A6*G$1-1)</f>
+        <f t="shared" si="1"/>
         <v>1.4000000000000004</v>
       </c>
       <c r="H6" s="6">
-        <f>$O$2*($A6*H$1-1)</f>
+        <f t="shared" si="1"/>
         <v>1.8000000000000003</v>
       </c>
       <c r="I6" s="6">
-        <f>$O$2*($A6*I$1-1)</f>
+        <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="J6" s="6">
-        <f>$O$2*($A6*J$1-1)</f>
+        <f t="shared" si="1"/>
         <v>2.6</v>
       </c>
       <c r="K6" s="10">
-        <f>$O$2*($A6*K$1-1)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>0.5</v>
       </c>
       <c r="B7" s="11">
-        <f>$O$2*($A7*B$1-1)</f>
+        <f t="shared" si="1"/>
         <v>-0.5</v>
       </c>
       <c r="C7" s="6">
-        <f>$O$2*($A7*C$1-1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D7" s="6">
-        <f>$O$2*($A7*D$1-1)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="E7" s="6">
-        <f>$O$2*($A7*E$1-1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F7" s="6">
-        <f>$O$2*($A7*F$1-1)</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="G7" s="6">
-        <f>$O$2*($A7*G$1-1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H7" s="6">
-        <f>$O$2*($A7*H$1-1)</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="I7" s="6">
-        <f>$O$2*($A7*I$1-1)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J7" s="6">
-        <f>$O$2*($A7*J$1-1)</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="K7" s="10">
-        <f>$O$2*($A7*K$1-1)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>0.6</v>
       </c>
       <c r="B8" s="11">
-        <f>$O$2*($A8*B$1-1)</f>
+        <f t="shared" si="1"/>
         <v>-0.4</v>
       </c>
       <c r="C8" s="6">
-        <f>$O$2*($A8*C$1-1)</f>
+        <f t="shared" si="1"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="D8" s="6">
-        <f>$O$2*($A8*D$1-1)</f>
+        <f t="shared" si="1"/>
         <v>0.79999999999999982</v>
       </c>
       <c r="E8" s="6">
-        <f>$O$2*($A8*E$1-1)</f>
+        <f t="shared" si="1"/>
         <v>1.4</v>
       </c>
       <c r="F8" s="6">
-        <f>$O$2*($A8*F$1-1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G8" s="6">
-        <f>$O$2*($A8*G$1-1)</f>
+        <f t="shared" si="1"/>
         <v>2.5999999999999996</v>
       </c>
       <c r="H8" s="6">
-        <f>$O$2*($A8*H$1-1)</f>
+        <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
       <c r="I8" s="6">
-        <f>$O$2*($A8*I$1-1)</f>
+        <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
       <c r="J8" s="6">
-        <f>$O$2*($A8*J$1-1)</f>
+        <f t="shared" si="1"/>
         <v>4.3999999999999995</v>
       </c>
       <c r="K8" s="10">
-        <f>$O$2*($A8*K$1-1)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>0.7</v>
       </c>
       <c r="B9" s="11">
-        <f>$O$2*($A9*B$1-1)</f>
+        <f t="shared" si="1"/>
         <v>-0.30000000000000004</v>
       </c>
       <c r="C9" s="6">
-        <f>$O$2*($A9*C$1-1)</f>
+        <f t="shared" si="1"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="D9" s="6">
-        <f>$O$2*($A9*D$1-1)</f>
+        <f t="shared" si="1"/>
         <v>1.0999999999999996</v>
       </c>
       <c r="E9" s="6">
-        <f>$O$2*($A9*E$1-1)</f>
+        <f t="shared" si="1"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="F9" s="6">
-        <f>$O$2*($A9*F$1-1)</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="G9" s="6">
-        <f>$O$2*($A9*G$1-1)</f>
+        <f t="shared" si="1"/>
         <v>3.1999999999999993</v>
       </c>
       <c r="H9" s="6">
-        <f>$O$2*($A9*H$1-1)</f>
+        <f t="shared" si="1"/>
         <v>3.8999999999999995</v>
       </c>
       <c r="I9" s="6">
-        <f>$O$2*($A9*I$1-1)</f>
+        <f t="shared" si="1"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="J9" s="6">
-        <f>$O$2*($A9*J$1-1)</f>
+        <f t="shared" si="1"/>
         <v>5.3</v>
       </c>
       <c r="K9" s="10">
-        <f>$O$2*($A9*K$1-1)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>0.8</v>
       </c>
       <c r="B10" s="11">
-        <f>$O$2*($A10*B$1-1)</f>
+        <f t="shared" si="1"/>
         <v>-0.19999999999999996</v>
       </c>
       <c r="C10" s="6">
-        <f>$O$2*($A10*C$1-1)</f>
+        <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="D10" s="6">
-        <f>$O$2*($A10*D$1-1)</f>
+        <f t="shared" si="1"/>
         <v>1.4000000000000004</v>
       </c>
       <c r="E10" s="6">
-        <f>$O$2*($A10*E$1-1)</f>
+        <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="F10" s="6">
-        <f>$O$2*($A10*F$1-1)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G10" s="6">
-        <f>$O$2*($A10*G$1-1)</f>
+        <f t="shared" si="1"/>
         <v>3.8000000000000007</v>
       </c>
       <c r="H10" s="6">
-        <f>$O$2*($A10*H$1-1)</f>
+        <f t="shared" si="1"/>
         <v>4.6000000000000005</v>
       </c>
       <c r="I10" s="6">
-        <f>$O$2*($A10*I$1-1)</f>
+        <f t="shared" si="1"/>
         <v>5.4</v>
       </c>
       <c r="J10" s="6">
-        <f>$O$2*($A10*J$1-1)</f>
+        <f t="shared" si="1"/>
         <v>6.2</v>
       </c>
       <c r="K10" s="10">
-        <f>$O$2*($A10*K$1-1)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>0.9</v>
       </c>
       <c r="B11" s="9">
-        <f>$O$2*($A11*B$1-1)</f>
+        <f t="shared" si="1"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="C11" s="6">
-        <f>$O$2*($A11*C$1-1)</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="D11" s="6">
-        <f>$O$2*($A11*D$1-1)</f>
+        <f t="shared" si="1"/>
         <v>1.7000000000000002</v>
       </c>
       <c r="E11" s="6">
-        <f>$O$2*($A11*E$1-1)</f>
+        <f t="shared" si="1"/>
         <v>2.6</v>
       </c>
       <c r="F11" s="6">
-        <f>$O$2*($A11*F$1-1)</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="G11" s="6">
-        <f>$O$2*($A11*G$1-1)</f>
+        <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="H11" s="6">
-        <f>$O$2*($A11*H$1-1)</f>
+        <f t="shared" si="1"/>
         <v>5.3</v>
       </c>
       <c r="I11" s="6">
-        <f>$O$2*($A11*I$1-1)</f>
+        <f t="shared" si="1"/>
         <v>6.2</v>
       </c>
       <c r="J11" s="6">
-        <f>$O$2*($A11*J$1-1)</f>
+        <f t="shared" si="1"/>
         <v>7.1</v>
       </c>
       <c r="K11" s="10">
-        <f>$O$2*($A11*K$1-1)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>1</v>
       </c>
       <c r="B12" s="12">
-        <f>$O$2*($A12*B$1-1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C12" s="12">
-        <f>$O$2*($A12*C$1-1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D12" s="12">
-        <f>$O$2*($A12*D$1-1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E12" s="12">
-        <f>$O$2*($A12*E$1-1)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F12" s="12">
-        <f>$O$2*($A12*F$1-1)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G12" s="12">
-        <f>$O$2*($A12*G$1-1)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H12" s="12">
-        <f>$O$2*($A12*H$1-1)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I12" s="12">
-        <f>$O$2*($A12*I$1-1)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="J12" s="12">
-        <f>$O$2*($A12*J$1-1)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K12" s="13">
-        <f>$O$2*($A12*K$1-1)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
